--- a/library/connectors.xlsx
+++ b/library/connectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git\elem_altium_db2\library\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{287ECE91-98C0-4D28-9262-A6E1CC8BC6EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E96103-16D3-4164-9C00-31A2EA46F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7305" yWindow="2265" windowWidth="18705" windowHeight="10440" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="1" r:id="rId1"/>
@@ -647,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -832,37 +832,33 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="19">
-    <cellStyle name="Accent 1 1" xfId="1"/>
-    <cellStyle name="Accent 2 1" xfId="2"/>
-    <cellStyle name="Accent 3 1" xfId="3"/>
-    <cellStyle name="Accent 3 2" xfId="4"/>
-    <cellStyle name="Accent 4" xfId="5"/>
-    <cellStyle name="Bad 1" xfId="6"/>
-    <cellStyle name="Error 1" xfId="7"/>
-    <cellStyle name="Footnote 1" xfId="8"/>
-    <cellStyle name="Good 1" xfId="9"/>
-    <cellStyle name="Heading 1 1" xfId="10"/>
-    <cellStyle name="Heading 2 1" xfId="11"/>
-    <cellStyle name="Heading 3" xfId="12"/>
-    <cellStyle name="Hyperlink 1" xfId="13"/>
-    <cellStyle name="Neutral 1" xfId="14"/>
-    <cellStyle name="Note 1" xfId="15"/>
-    <cellStyle name="Status 1" xfId="16"/>
-    <cellStyle name="Text 1" xfId="17"/>
-    <cellStyle name="Warning 1" xfId="18"/>
+    <cellStyle name="Accent 1 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Accent 2 1" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Accent 3 1" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Accent 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Accent 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Bad 1" xfId="6" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Error 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Footnote 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Good 1" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="Heading 1 1" xfId="10" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Heading 2 1" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Heading 3" xfId="12" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="Hyperlink 1" xfId="13" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Neutral 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Note 1" xfId="15" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Status 1" xfId="16" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Text 1" xfId="17" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Warning 1" xfId="18" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1300,11 +1296,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1320,7 +1316,7 @@
     <col min="9" max="9" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1345,7 +1341,7 @@
       <c r="J1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1605,13 +1601,13 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>42</v>
       </c>
       <c r="D15" t="s">
@@ -1900,12 +1896,12 @@
       <c r="E29" t="s">
         <v>74</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="A30" t="s">
         <v>77</v>
       </c>
       <c r="B30" t="s">
@@ -1920,7 +1916,7 @@
       <c r="E30" t="s">
         <v>77</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2060,7 +2056,7 @@
       <c r="E37" t="s">
         <v>91</v>
       </c>
-      <c r="F37" s="6" t="s">
+      <c r="F37" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2100,7 +2096,7 @@
       <c r="E39" t="s">
         <v>195</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2156,11 +2152,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="A20" sqref="A20:XFD102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2168,7 +2164,7 @@
     <col min="1" max="6" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2562,11 +2558,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A21" sqref="A21:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2988,11 +2984,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3005,7 +3001,7 @@
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="3" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>

--- a/library/connectors.xlsx
+++ b/library/connectors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitProjects\elem_altium_db2\library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E96103-16D3-4164-9C00-31A2EA46F034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E574B665-8311-44D4-9382-BBE165C7E2B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Connectors" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="203">
   <si>
     <t>Part Number</t>
   </si>
@@ -642,6 +642,9 @@
   </si>
   <si>
     <t>PLS-8</t>
+  </si>
+  <si>
+    <t>con-ru-f-1_empty</t>
   </si>
 </sst>
 </file>
@@ -1297,10 +1300,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:XFD68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1341,106 +1344,103 @@
       <c r="J1"/>
       <c r="K1"/>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" s="1" customFormat="1" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B2"/>
+      <c r="C2"/>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
       <c r="K2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F6" t="s">
         <v>8</v>
@@ -1448,93 +1448,93 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>7</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E10" t="s">
         <v>26</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
         <v>8</v>
@@ -1542,39 +1542,39 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>37</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -1582,79 +1582,79 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>34</v>
       </c>
       <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F14" t="s">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
         <v>43</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>47</v>
@@ -1662,19 +1662,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>47</v>
@@ -1682,19 +1682,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>47</v>
@@ -1702,19 +1702,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>47</v>
@@ -1722,19 +1722,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
         <v>11</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>47</v>
@@ -1742,19 +1742,19 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>11</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>47</v>
@@ -1762,79 +1762,79 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="D23" t="s">
+        <v>60</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C25" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>63</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F26" t="s">
         <v>47</v>
@@ -1842,19 +1842,19 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>47</v>
@@ -1862,19 +1862,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F28" t="s">
         <v>47</v>
@@ -1882,79 +1882,79 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D29" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
+      </c>
+      <c r="F29" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>78</v>
+      <c r="A31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C31" t="s">
+        <v>77</v>
       </c>
       <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C32" t="s">
-        <v>79</v>
+        <v>78</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
+        <v>11</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>78</v>
       </c>
       <c r="F32" t="s">
         <v>47</v>
@@ -1962,181 +1962,201 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="B33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C33" t="s">
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F33" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" t="s">
-        <v>83</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>84</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="1" t="s">
-        <v>47</v>
+        <v>15</v>
+      </c>
+      <c r="E34" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" t="s">
+        <v>84</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>86</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>87</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>86</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>89</v>
-      </c>
-      <c r="B36" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D36" t="s">
-        <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>89</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
+        <v>89</v>
+      </c>
+      <c r="C37" t="s">
+        <v>89</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>89</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>91</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C38" t="s">
         <v>91</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>75</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E38" t="s">
         <v>91</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>193</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C39" t="s">
         <v>193</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D39" t="s">
         <v>194</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>193</v>
       </c>
-      <c r="F38" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" t="s">
-        <v>195</v>
-      </c>
-      <c r="C39" t="s">
-        <v>195</v>
-      </c>
-      <c r="D39" t="s">
-        <v>196</v>
-      </c>
-      <c r="E39" t="s">
-        <v>195</v>
-      </c>
       <c r="F39" t="s">
-        <v>197</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
+      </c>
+      <c r="E40" t="s">
+        <v>195</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>198</v>
+      </c>
+      <c r="B41" t="s">
+        <v>198</v>
+      </c>
+      <c r="C41" t="s">
+        <v>198</v>
+      </c>
+      <c r="D41" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>200</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>200</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>200</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D42" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F42" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2987,8 +3007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD40"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
